--- a/maximos.xlsx
+++ b/maximos.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H201"/>
+  <dimension ref="A1:H171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,20 +575,20 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>desarrollar y estimular a los demás</t>
+          <t>empatía</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02927580893682588</v>
+        <v>0.05855161787365177</v>
       </c>
       <c r="G5" t="n">
-        <v>2.61</v>
+        <v>1.825</v>
       </c>
       <c r="H5" t="n">
-        <v>3.74</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="6">
@@ -605,20 +605,20 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>empatía</t>
+          <t>influencia</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05855161787365177</v>
+        <v>0.03235747303543914</v>
       </c>
       <c r="G6" t="n">
-        <v>1.825</v>
+        <v>3.635</v>
       </c>
       <c r="H6" t="n">
-        <v>3.38</v>
+        <v>5.72</v>
       </c>
     </row>
     <row r="7">
@@ -635,20 +635,20 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>autocontrol emocional</t>
+          <t>liderazgo</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03081664098613251</v>
+        <v>0.02927580893682588</v>
       </c>
       <c r="G7" t="n">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="H7" t="n">
-        <v>3.02</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="8">
@@ -665,20 +665,20 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>influencia</t>
+          <t>optimismo</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03235747303543914</v>
+        <v>0.0600924499229584</v>
       </c>
       <c r="G8" t="n">
-        <v>3.635</v>
+        <v>1.26</v>
       </c>
       <c r="H8" t="n">
-        <v>5.72</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="9">
@@ -695,20 +695,20 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>liderazgo</t>
+          <t>relación social</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02927580893682588</v>
+        <v>0.02773497688751926</v>
       </c>
       <c r="G9" t="n">
-        <v>1.725</v>
+        <v>2.625</v>
       </c>
       <c r="H9" t="n">
-        <v>3.33</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="10">
@@ -725,20 +725,20 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>optimismo</t>
+          <t>colaboración y cooperación</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0600924499229584</v>
+        <v>0.01848998459167951</v>
       </c>
       <c r="G10" t="n">
-        <v>1.26</v>
+        <v>1.45</v>
       </c>
       <c r="H10" t="n">
-        <v>2.4</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="11">
@@ -755,20 +755,20 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>relación social</t>
+          <t>comprensión organizativa</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02773497688751926</v>
+        <v>0.02619414483821263</v>
       </c>
       <c r="G11" t="n">
-        <v>2.625</v>
+        <v>1.325</v>
       </c>
       <c r="H11" t="n">
-        <v>3.74</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="12">
@@ -785,20 +785,20 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>colaboración y cooperación</t>
+          <t>conciencia crítica</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01848998459167951</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="G12" t="n">
-        <v>1.45</v>
+        <v>2.135</v>
       </c>
       <c r="H12" t="n">
-        <v>2.24</v>
+        <v>3.59</v>
       </c>
     </row>
     <row r="13">
@@ -815,20 +815,20 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>comprensión organizativa</t>
+          <t>desarrollo de las relaciones</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02619414483821263</v>
+        <v>0.04776579352850539</v>
       </c>
       <c r="G13" t="n">
-        <v>1.325</v>
+        <v>1.655</v>
       </c>
       <c r="H13" t="n">
-        <v>2.3</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="14">
@@ -845,7 +845,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>conciencia crítica</t>
+          <t>tolerancia a la frustración</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -855,10 +855,10 @@
         <v>0.03389830508474576</v>
       </c>
       <c r="G14" t="n">
-        <v>2.135</v>
+        <v>1.565</v>
       </c>
       <c r="H14" t="n">
-        <v>3.59</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="15">
@@ -875,20 +875,20 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>desarrollo de las relaciones</t>
+          <t>manejo de conflictos</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F15" t="n">
-        <v>0.04776579352850539</v>
+        <v>0.03235747303543914</v>
       </c>
       <c r="G15" t="n">
-        <v>1.655</v>
+        <v>2.05</v>
       </c>
       <c r="H15" t="n">
-        <v>3.19</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="16">
@@ -905,20 +905,20 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>tolerancia a la frustración</t>
+          <t>motivación de logro</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="F16" t="n">
-        <v>0.03389830508474576</v>
+        <v>0.09553158705701079</v>
       </c>
       <c r="G16" t="n">
-        <v>1.565</v>
+        <v>1.36</v>
       </c>
       <c r="H16" t="n">
-        <v>2.88</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="17">
@@ -935,20 +935,20 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>comunicacion asertiva</t>
+          <t>percepción y comprensión emocional</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F17" t="n">
-        <v>0.09399075500770417</v>
+        <v>0.06471494607087827</v>
       </c>
       <c r="G17" t="n">
-        <v>1.33</v>
+        <v>1.485</v>
       </c>
       <c r="H17" t="n">
-        <v>2.13</v>
+        <v>4.09</v>
       </c>
     </row>
     <row r="18">
@@ -965,7 +965,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>manejo de conflictos</t>
+          <t>violencia</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -975,105 +975,105 @@
         <v>0.03235747303543914</v>
       </c>
       <c r="G18" t="n">
-        <v>2.05</v>
+        <v>3.56</v>
       </c>
       <c r="H18" t="n">
-        <v>3.12</v>
+        <v>6.21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
         <v>649</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>emol1</t>
+          <t>emol2</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>motivación de logro</t>
+          <t>asertividad</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="F19" t="n">
-        <v>0.09553158705701079</v>
+        <v>0.01848998459167951</v>
       </c>
       <c r="G19" t="n">
-        <v>1.36</v>
+        <v>0.3</v>
       </c>
       <c r="H19" t="n">
-        <v>3.33</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
         <v>649</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>emol1</t>
+          <t>emol2</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>percepción y comprensión emocional</t>
+          <t>autoconciencia emocional</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="F20" t="n">
-        <v>0.06471494607087827</v>
+        <v>0.1294298921417565</v>
       </c>
       <c r="G20" t="n">
-        <v>1.485</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>4.09</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B21" t="n">
         <v>649</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>emol1</t>
+          <t>emol2</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>violencia</t>
+          <t>autoestima</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F21" t="n">
-        <v>0.03235747303543914</v>
+        <v>0.02157164869029276</v>
       </c>
       <c r="G21" t="n">
-        <v>3.56</v>
+        <v>0.425</v>
       </c>
       <c r="H21" t="n">
-        <v>6.21</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B22" t="n">
         <v>649</v>
@@ -1085,25 +1085,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>asertividad</t>
+          <t>empatía</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01848998459167951</v>
+        <v>0.2434514637904469</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.68</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B23" t="n">
         <v>649</v>
@@ -1115,25 +1115,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>autoconciencia emocional</t>
+          <t>influencia</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1294298921417565</v>
+        <v>0.04468412942989214</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="H23" t="n">
-        <v>1.06</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B24" t="n">
         <v>649</v>
@@ -1145,25 +1145,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>autoestima</t>
+          <t>liderazgo</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="F24" t="n">
-        <v>0.02157164869029276</v>
+        <v>0.2326656394453005</v>
       </c>
       <c r="G24" t="n">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B25" t="n">
         <v>649</v>
@@ -1175,25 +1175,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>desarrollar y estimular a los demás</t>
+          <t>optimismo</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08628659476117104</v>
+        <v>0.226502311248074</v>
       </c>
       <c r="G25" t="n">
-        <v>0.525</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.83</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B26" t="n">
         <v>649</v>
@@ -1205,25 +1205,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>empatía</t>
+          <t>relación social</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>158</v>
+        <v>60</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2434514637904469</v>
+        <v>0.09244992295839753</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H26" t="n">
-        <v>1.19</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B27" t="n">
         <v>649</v>
@@ -1235,25 +1235,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>autocontrol emocional</t>
+          <t>colaboración y cooperación</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>153</v>
+        <v>22</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2357473035439137</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="H27" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B28" t="n">
         <v>649</v>
@@ -1265,25 +1265,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>influencia</t>
+          <t>comprensión organizativa</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="F28" t="n">
-        <v>0.04468412942989214</v>
+        <v>0.2280431432973806</v>
       </c>
       <c r="G28" t="n">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1.51</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B29" t="n">
         <v>649</v>
@@ -1295,25 +1295,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>liderazgo</t>
+          <t>conciencia crítica</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2326656394453005</v>
+        <v>0.01540832049306626</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="H29" t="n">
-        <v>0.64</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B30" t="n">
         <v>649</v>
@@ -1325,25 +1325,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>optimismo</t>
+          <t>desarrollo de las relaciones</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>147</v>
+        <v>20</v>
       </c>
       <c r="F30" t="n">
-        <v>0.226502311248074</v>
+        <v>0.03081664098613251</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="H30" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B31" t="n">
         <v>649</v>
@@ -1355,25 +1355,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>relación social</t>
+          <t>tolerancia a la frustración</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09244992295839753</v>
+        <v>0.2141756548536209</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1.35</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B32" t="n">
         <v>649</v>
@@ -1385,25 +1385,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>colaboración y cooperación</t>
+          <t>manejo de conflictos</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F32" t="n">
-        <v>0.03389830508474576</v>
+        <v>0.02003081664098613</v>
       </c>
       <c r="G32" t="n">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="H32" t="n">
-        <v>0.87</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B33" t="n">
         <v>649</v>
@@ -1415,25 +1415,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>comprensión organizativa</t>
+          <t>motivación de logro</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2280431432973806</v>
+        <v>0.02927580893682588</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.525</v>
       </c>
       <c r="H33" t="n">
-        <v>0.74</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B34" t="n">
         <v>649</v>
@@ -1445,25 +1445,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>conciencia crítica</t>
+          <t>percepción y comprensión emocional</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="F34" t="n">
-        <v>0.01540832049306626</v>
+        <v>0.07550077041602465</v>
       </c>
       <c r="G34" t="n">
-        <v>0.425</v>
+        <v>0.4</v>
       </c>
       <c r="H34" t="n">
-        <v>1.54</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B35" t="n">
         <v>649</v>
@@ -1475,205 +1475,205 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>desarrollo de las relaciones</t>
+          <t>violencia</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="F35" t="n">
-        <v>0.03081664098613251</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="G35" t="n">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.28</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>649</v>
+        <v>363</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>emol2</t>
+          <t>reddit1</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>tolerancia a la frustración</t>
+          <t>asertividad</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>139</v>
+        <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2141756548536209</v>
+        <v>0.04683195592286502</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1.405</v>
       </c>
       <c r="H36" t="n">
-        <v>0.44</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" t="n">
+        <v>363</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>reddit1</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>autoconciencia emocional</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
         <v>15</v>
       </c>
-      <c r="B37" t="n">
-        <v>649</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>emol2</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>comunicacion asertiva</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>27</v>
-      </c>
       <c r="F37" t="n">
-        <v>0.04160246533127889</v>
+        <v>0.04132231404958678</v>
       </c>
       <c r="G37" t="n">
-        <v>0.35</v>
+        <v>1.7225</v>
       </c>
       <c r="H37" t="n">
-        <v>0.8</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B38" t="n">
-        <v>649</v>
+        <v>363</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>emol2</t>
+          <t>reddit1</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>manejo de conflictos</t>
+          <t>autoestima</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F38" t="n">
-        <v>0.02003081664098613</v>
+        <v>0.04958677685950413</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4</v>
+        <v>2.3775</v>
       </c>
       <c r="H38" t="n">
-        <v>0.64</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B39" t="n">
-        <v>649</v>
+        <v>363</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>emol2</t>
+          <t>reddit1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>motivación de logro</t>
+          <t>empatía</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F39" t="n">
-        <v>0.02927580893682588</v>
+        <v>0.03581267217630854</v>
       </c>
       <c r="G39" t="n">
-        <v>0.525</v>
+        <v>2.175</v>
       </c>
       <c r="H39" t="n">
-        <v>1.03</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B40" t="n">
-        <v>649</v>
+        <v>363</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>emol2</t>
+          <t>reddit1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>percepción y comprensión emocional</t>
+          <t>influencia</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="F40" t="n">
-        <v>0.07550077041602465</v>
+        <v>0.04132231404958678</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4</v>
+        <v>4.26</v>
       </c>
       <c r="H40" t="n">
-        <v>1.3</v>
+        <v>6.36</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B41" t="n">
-        <v>649</v>
+        <v>363</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>emol2</t>
+          <t>reddit1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>violencia</t>
+          <t>liderazgo</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2203389830508475</v>
+        <v>0.03856749311294766</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.8725</v>
       </c>
       <c r="H41" t="n">
-        <v>1.84</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B42" t="n">
         <v>363</v>
@@ -1685,25 +1685,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>asertividad</t>
+          <t>optimismo</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F42" t="n">
-        <v>0.04683195592286502</v>
+        <v>0.03581267217630854</v>
       </c>
       <c r="G42" t="n">
-        <v>1.405</v>
+        <v>1.695</v>
       </c>
       <c r="H42" t="n">
-        <v>2.28</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B43" t="n">
         <v>363</v>
@@ -1715,25 +1715,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>autoconciencia emocional</t>
+          <t>relación social</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F43" t="n">
-        <v>0.04132231404958678</v>
+        <v>0.03581267217630854</v>
       </c>
       <c r="G43" t="n">
-        <v>1.7225</v>
+        <v>3.03</v>
       </c>
       <c r="H43" t="n">
-        <v>3.12</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B44" t="n">
         <v>363</v>
@@ -1745,25 +1745,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>autoestima</t>
+          <t>colaboración y cooperación</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F44" t="n">
-        <v>0.04958677685950413</v>
+        <v>0.03856749311294766</v>
       </c>
       <c r="G44" t="n">
-        <v>2.3775</v>
+        <v>1.2775</v>
       </c>
       <c r="H44" t="n">
-        <v>4.63</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B45" t="n">
         <v>363</v>
@@ -1775,25 +1775,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>desarrollar y estimular a los demás</t>
+          <t>comprensión organizativa</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F45" t="n">
-        <v>0.03581267217630854</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="G45" t="n">
-        <v>2.9375</v>
+        <v>1.3625</v>
       </c>
       <c r="H45" t="n">
-        <v>5.13</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B46" t="n">
         <v>363</v>
@@ -1805,25 +1805,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>empatía</t>
+          <t>conciencia crítica</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F46" t="n">
-        <v>0.03581267217630854</v>
+        <v>0.04132231404958678</v>
       </c>
       <c r="G46" t="n">
-        <v>2.175</v>
+        <v>2.535</v>
       </c>
       <c r="H46" t="n">
-        <v>3.25</v>
+        <v>4.19</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B47" t="n">
         <v>363</v>
@@ -1835,25 +1835,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>autocontrol emocional</t>
+          <t>desarrollo de las relaciones</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F47" t="n">
-        <v>0.04958677685950413</v>
+        <v>0.04132231404958678</v>
       </c>
       <c r="G47" t="n">
-        <v>1.7225</v>
+        <v>2.005</v>
       </c>
       <c r="H47" t="n">
-        <v>2.88</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B48" t="n">
         <v>363</v>
@@ -1865,25 +1865,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>influencia</t>
+          <t>tolerancia a la frustración</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F48" t="n">
-        <v>0.04132231404958678</v>
+        <v>0.03581267217630854</v>
       </c>
       <c r="G48" t="n">
-        <v>4.26</v>
+        <v>1.8525</v>
       </c>
       <c r="H48" t="n">
-        <v>6.36</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B49" t="n">
         <v>363</v>
@@ -1895,25 +1895,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>liderazgo</t>
+          <t>manejo de conflictos</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F49" t="n">
-        <v>0.03856749311294766</v>
+        <v>0.0440771349862259</v>
       </c>
       <c r="G49" t="n">
-        <v>1.8725</v>
+        <v>2.54</v>
       </c>
       <c r="H49" t="n">
-        <v>3.3</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B50" t="n">
         <v>363</v>
@@ -1925,25 +1925,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>optimismo</t>
+          <t>motivación de logro</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F50" t="n">
-        <v>0.03581267217630854</v>
+        <v>0.04683195592286502</v>
       </c>
       <c r="G50" t="n">
-        <v>1.695</v>
+        <v>1.9975</v>
       </c>
       <c r="H50" t="n">
-        <v>2.68</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B51" t="n">
         <v>363</v>
@@ -1955,25 +1955,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>relación social</t>
+          <t>percepción y comprensión emocional</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F51" t="n">
-        <v>0.03581267217630854</v>
+        <v>0.0440771349862259</v>
       </c>
       <c r="G51" t="n">
-        <v>3.03</v>
+        <v>1.95</v>
       </c>
       <c r="H51" t="n">
-        <v>4.41</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B52" t="n">
         <v>363</v>
@@ -1985,295 +1985,295 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>colaboración y cooperación</t>
+          <t>violencia</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F52" t="n">
-        <v>0.03856749311294766</v>
+        <v>0.05234159779614325</v>
       </c>
       <c r="G52" t="n">
-        <v>1.2775</v>
+        <v>3.505</v>
       </c>
       <c r="H52" t="n">
-        <v>2.62</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B53" t="n">
         <v>363</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>reddit1</t>
+          <t>reddit2</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>comprensión organizativa</t>
+          <t>asertividad</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.01377410468319559</v>
       </c>
       <c r="G53" t="n">
-        <v>1.3625</v>
+        <v>0.3</v>
       </c>
       <c r="H53" t="n">
-        <v>2.11</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B54" t="n">
         <v>363</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>reddit1</t>
+          <t>reddit2</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>conciencia crítica</t>
+          <t>autoconciencia emocional</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="F54" t="n">
-        <v>0.04132231404958678</v>
+        <v>0.1460055096418733</v>
       </c>
       <c r="G54" t="n">
-        <v>2.535</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>4.19</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B55" t="n">
         <v>363</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>reddit1</t>
+          <t>reddit2</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>desarrollo de las relaciones</t>
+          <t>autoestima</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F55" t="n">
-        <v>0.04132231404958678</v>
+        <v>0.01652892561983471</v>
       </c>
       <c r="G55" t="n">
-        <v>2.005</v>
+        <v>0.425</v>
       </c>
       <c r="H55" t="n">
-        <v>3.45</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B56" t="n">
         <v>363</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>reddit1</t>
+          <t>reddit2</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>tolerancia a la frustración</t>
+          <t>empatía</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F56" t="n">
-        <v>0.03581267217630854</v>
+        <v>0.06611570247933884</v>
       </c>
       <c r="G56" t="n">
-        <v>1.8525</v>
+        <v>0.25</v>
       </c>
       <c r="H56" t="n">
-        <v>3.45</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B57" t="n">
         <v>363</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>reddit1</t>
+          <t>reddit2</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>comunicacion asertiva</t>
+          <t>influencia</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F57" t="n">
-        <v>0.04683195592286502</v>
+        <v>0.05785123966942149</v>
       </c>
       <c r="G57" t="n">
-        <v>1.465</v>
+        <v>0.475</v>
       </c>
       <c r="H57" t="n">
-        <v>2.36</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B58" t="n">
         <v>363</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>reddit1</t>
+          <t>reddit2</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>manejo de conflictos</t>
+          <t>liderazgo</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0440771349862259</v>
+        <v>0.2369146005509642</v>
       </c>
       <c r="G58" t="n">
-        <v>2.54</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>4.71</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B59" t="n">
         <v>363</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>reddit1</t>
+          <t>reddit2</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>motivación de logro</t>
+          <t>optimismo</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="F59" t="n">
-        <v>0.04683195592286502</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="G59" t="n">
-        <v>1.9975</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>3.88</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B60" t="n">
         <v>363</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>reddit1</t>
+          <t>reddit2</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>percepción y comprensión emocional</t>
+          <t>relación social</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0440771349862259</v>
+        <v>0.02479338842975207</v>
       </c>
       <c r="G60" t="n">
-        <v>1.95</v>
+        <v>0.4875</v>
       </c>
       <c r="H60" t="n">
-        <v>3.13</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B61" t="n">
         <v>363</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>reddit1</t>
+          <t>reddit2</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>violencia</t>
+          <t>colaboración y cooperación</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F61" t="n">
-        <v>0.05234159779614325</v>
+        <v>0.02754820936639119</v>
       </c>
       <c r="G61" t="n">
-        <v>3.505</v>
+        <v>0.35</v>
       </c>
       <c r="H61" t="n">
-        <v>4.97</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B62" t="n">
         <v>363</v>
@@ -2285,25 +2285,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>asertividad</t>
+          <t>comprensión organizativa</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="F62" t="n">
-        <v>0.01377410468319559</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="G62" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.43</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B63" t="n">
         <v>363</v>
@@ -2315,25 +2315,25 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>autoconciencia emocional</t>
+          <t>conciencia crítica</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1460055096418733</v>
+        <v>0.2451790633608815</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.49</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B64" t="n">
         <v>363</v>
@@ -2345,25 +2345,25 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>autoestima</t>
+          <t>desarrollo de las relaciones</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F64" t="n">
-        <v>0.01652892561983471</v>
+        <v>0.04132231404958678</v>
       </c>
       <c r="G64" t="n">
-        <v>0.425</v>
+        <v>0.475</v>
       </c>
       <c r="H64" t="n">
-        <v>0.67</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B65" t="n">
         <v>363</v>
@@ -2375,25 +2375,25 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>desarrollar y estimular a los demás</t>
+          <t>tolerancia a la frustración</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="F65" t="n">
-        <v>0.03581267217630854</v>
+        <v>0.2286501377410468</v>
       </c>
       <c r="G65" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>1.13</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B66" t="n">
         <v>363</v>
@@ -2405,25 +2405,25 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>empatía</t>
+          <t>manejo de conflictos</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F66" t="n">
-        <v>0.06611570247933884</v>
+        <v>0.02203856749311295</v>
       </c>
       <c r="G66" t="n">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="H66" t="n">
-        <v>1.02</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B67" t="n">
         <v>363</v>
@@ -2435,25 +2435,25 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>autocontrol emocional</t>
+          <t>motivación de logro</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2121212121212121</v>
+        <v>0.03856749311294766</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="H67" t="n">
-        <v>0.49</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B68" t="n">
         <v>363</v>
@@ -2465,25 +2465,25 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>influencia</t>
+          <t>percepción y comprensión emocional</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F68" t="n">
-        <v>0.05785123966942149</v>
+        <v>0.01652892561983471</v>
       </c>
       <c r="G68" t="n">
-        <v>0.475</v>
+        <v>0.4</v>
       </c>
       <c r="H68" t="n">
-        <v>1.1</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B69" t="n">
         <v>363</v>
@@ -2495,385 +2495,385 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>liderazgo</t>
+          <t>violencia</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2369146005509642</v>
+        <v>0.2451790633608815</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B70" t="n">
-        <v>363</v>
+        <v>1012</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>reddit2</t>
+          <t>youtube1</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>optimismo</t>
+          <t>asertividad</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="F70" t="n">
-        <v>0.2424242424242424</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="H70" t="n">
-        <v>0.63</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B71" t="n">
-        <v>363</v>
+        <v>1012</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>reddit2</t>
+          <t>youtube1</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>relación social</t>
+          <t>autoconciencia emocional</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="F71" t="n">
-        <v>0.02479338842975207</v>
+        <v>0.04743083003952569</v>
       </c>
       <c r="G71" t="n">
-        <v>0.4875</v>
+        <v>0.9749999999999999</v>
       </c>
       <c r="H71" t="n">
-        <v>0.64</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B72" t="n">
-        <v>363</v>
+        <v>1012</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>reddit2</t>
+          <t>youtube1</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>colaboración y cooperación</t>
+          <t>autoestima</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F72" t="n">
-        <v>0.02754820936639119</v>
+        <v>0.03063241106719368</v>
       </c>
       <c r="G72" t="n">
-        <v>0.35</v>
+        <v>1.545</v>
       </c>
       <c r="H72" t="n">
-        <v>0.57</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B73" t="n">
-        <v>363</v>
+        <v>1012</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>reddit2</t>
+          <t>youtube1</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>comprensión organizativa</t>
+          <t>empatía</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.05138339920948617</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="H73" t="n">
-        <v>0.37</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B74" t="n">
-        <v>363</v>
+        <v>1012</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>reddit2</t>
+          <t>youtube1</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>conciencia crítica</t>
+          <t>influencia</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="F74" t="n">
-        <v>0.2451790633608815</v>
+        <v>0.03162055335968379</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>2.585</v>
       </c>
       <c r="H74" t="n">
-        <v>0.72</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B75" t="n">
-        <v>363</v>
+        <v>1012</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>reddit2</t>
+          <t>youtube1</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>desarrollo de las relaciones</t>
+          <t>liderazgo</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F75" t="n">
-        <v>0.04132231404958678</v>
+        <v>0.01778656126482214</v>
       </c>
       <c r="G75" t="n">
-        <v>0.475</v>
+        <v>1.375</v>
       </c>
       <c r="H75" t="n">
-        <v>1.16</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B76" t="n">
-        <v>363</v>
+        <v>1012</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>reddit2</t>
+          <t>youtube1</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>tolerancia a la frustración</t>
+          <t>optimismo</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2286501377410468</v>
+        <v>0.04743083003952569</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>1.035</v>
       </c>
       <c r="H76" t="n">
-        <v>0.46</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B77" t="n">
-        <v>363</v>
+        <v>1012</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>reddit2</t>
+          <t>youtube1</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>comunicacion asertiva</t>
+          <t>relación social</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F77" t="n">
-        <v>0.03856749311294766</v>
+        <v>0.03260869565217391</v>
       </c>
       <c r="G77" t="n">
-        <v>0.35</v>
+        <v>1.79</v>
       </c>
       <c r="H77" t="n">
-        <v>0.58</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1012</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>youtube1</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>colaboración y cooperación</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
         <v>16</v>
       </c>
-      <c r="B78" t="n">
-        <v>363</v>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>reddit2</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>manejo de conflictos</t>
-        </is>
-      </c>
-      <c r="E78" t="n">
-        <v>8</v>
-      </c>
       <c r="F78" t="n">
-        <v>0.02203856749311295</v>
+        <v>0.0158102766798419</v>
       </c>
       <c r="G78" t="n">
-        <v>0.375</v>
+        <v>1.1</v>
       </c>
       <c r="H78" t="n">
-        <v>0.64</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B79" t="n">
-        <v>363</v>
+        <v>1012</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>reddit2</t>
+          <t>youtube1</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>motivación de logro</t>
+          <t>comprensión organizativa</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F79" t="n">
-        <v>0.03856749311294766</v>
+        <v>0.02964426877470356</v>
       </c>
       <c r="G79" t="n">
-        <v>0.55</v>
+        <v>0.8749999999999999</v>
       </c>
       <c r="H79" t="n">
-        <v>0.87</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B80" t="n">
-        <v>363</v>
+        <v>1012</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>reddit2</t>
+          <t>youtube1</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>percepción y comprensión emocional</t>
+          <t>conciencia crítica</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="F80" t="n">
-        <v>0.01652892561983471</v>
+        <v>0.02766798418972332</v>
       </c>
       <c r="G80" t="n">
-        <v>0.4</v>
+        <v>1.51</v>
       </c>
       <c r="H80" t="n">
-        <v>0.53</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B81" t="n">
-        <v>363</v>
+        <v>1012</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>reddit2</t>
+          <t>youtube1</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>violencia</t>
+          <t>desarrollo de las relaciones</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="F81" t="n">
-        <v>0.2451790633608815</v>
+        <v>0.04940711462450593</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>1.155</v>
       </c>
       <c r="H81" t="n">
-        <v>1.35</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B82" t="n">
         <v>1012</v>
@@ -2885,25 +2885,25 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>asertividad</t>
+          <t>tolerancia a la frustración</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F82" t="n">
-        <v>0.02272727272727273</v>
+        <v>0.0266798418972332</v>
       </c>
       <c r="G82" t="n">
-        <v>0.97</v>
+        <v>1.165</v>
       </c>
       <c r="H82" t="n">
-        <v>2.45</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B83" t="n">
         <v>1012</v>
@@ -2915,25 +2915,25 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>autoconciencia emocional</t>
+          <t>manejo de conflictos</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="F83" t="n">
-        <v>0.04743083003952569</v>
+        <v>0.02766798418972332</v>
       </c>
       <c r="G83" t="n">
-        <v>0.9749999999999999</v>
+        <v>1.52625</v>
       </c>
       <c r="H83" t="n">
-        <v>2.01</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B84" t="n">
         <v>1012</v>
@@ -2945,25 +2945,25 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>autoestima</t>
+          <t>motivación de logro</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F84" t="n">
-        <v>0.03063241106719368</v>
+        <v>0.03853754940711462</v>
       </c>
       <c r="G84" t="n">
-        <v>1.545</v>
+        <v>1.31</v>
       </c>
       <c r="H84" t="n">
-        <v>2.63</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B85" t="n">
         <v>1012</v>
@@ -2975,25 +2975,25 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>desarrollar y estimular a los demás</t>
+          <t>percepción y comprensión emocional</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F85" t="n">
-        <v>0.03458498023715415</v>
+        <v>0.04644268774703558</v>
       </c>
       <c r="G85" t="n">
-        <v>1.73875</v>
+        <v>1.085</v>
       </c>
       <c r="H85" t="n">
-        <v>3.34</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B86" t="n">
         <v>1012</v>
@@ -3005,475 +3005,475 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>empatía</t>
+          <t>violencia</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F86" t="n">
-        <v>0.05138339920948617</v>
+        <v>0.03260869565217391</v>
       </c>
       <c r="G86" t="n">
-        <v>1.25</v>
+        <v>2.235</v>
       </c>
       <c r="H86" t="n">
-        <v>2.58</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B87" t="n">
         <v>1012</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>youtube1</t>
+          <t>youtube2</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>autocontrol emocional</t>
+          <t>asertividad</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>41</v>
+        <v>172</v>
       </c>
       <c r="F87" t="n">
-        <v>0.04051383399209486</v>
+        <v>0.1699604743083004</v>
       </c>
       <c r="G87" t="n">
-        <v>1.03125</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>2.09</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B88" t="n">
         <v>1012</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>youtube1</t>
+          <t>youtube2</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>influencia</t>
+          <t>autoconciencia emocional</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>32</v>
+        <v>205</v>
       </c>
       <c r="F88" t="n">
-        <v>0.03162055335968379</v>
+        <v>0.2025691699604743</v>
       </c>
       <c r="G88" t="n">
-        <v>2.585</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>3.89</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B89" t="n">
         <v>1012</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>youtube1</t>
+          <t>youtube2</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>liderazgo</t>
+          <t>autoestima</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>18</v>
+        <v>237</v>
       </c>
       <c r="F89" t="n">
-        <v>0.01778656126482214</v>
+        <v>0.2341897233201581</v>
       </c>
       <c r="G89" t="n">
-        <v>1.375</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>2.16</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B90" t="n">
         <v>1012</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>youtube1</t>
+          <t>youtube2</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>optimismo</t>
+          <t>empatía</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="F90" t="n">
-        <v>0.04743083003952569</v>
+        <v>0.2371541501976284</v>
       </c>
       <c r="G90" t="n">
-        <v>1.035</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>2.13</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B91" t="n">
         <v>1012</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>youtube1</t>
+          <t>youtube2</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>relación social</t>
+          <t>influencia</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F91" t="n">
-        <v>0.03260869565217391</v>
+        <v>0.03656126482213438</v>
       </c>
       <c r="G91" t="n">
-        <v>1.79</v>
+        <v>0.5</v>
       </c>
       <c r="H91" t="n">
-        <v>3.68</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B92" t="n">
         <v>1012</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>youtube1</t>
+          <t>youtube2</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>colaboración y cooperación</t>
+          <t>liderazgo</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0158102766798419</v>
+        <v>0.1432806324110672</v>
       </c>
       <c r="G92" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>2.4</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B93" t="n">
         <v>1012</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>youtube1</t>
+          <t>youtube2</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>comprensión organizativa</t>
+          <t>optimismo</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>30</v>
+        <v>194</v>
       </c>
       <c r="F93" t="n">
-        <v>0.02964426877470356</v>
+        <v>0.191699604743083</v>
       </c>
       <c r="G93" t="n">
-        <v>0.8749999999999999</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>1.58</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B94" t="n">
         <v>1012</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>youtube1</t>
+          <t>youtube2</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>conciencia crítica</t>
+          <t>relación social</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F94" t="n">
-        <v>0.02766798418972332</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="G94" t="n">
-        <v>1.51</v>
+        <v>0.475</v>
       </c>
       <c r="H94" t="n">
-        <v>3.63</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B95" t="n">
         <v>1012</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>youtube1</t>
+          <t>youtube2</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>desarrollo de las relaciones</t>
+          <t>colaboración y cooperación</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F95" t="n">
-        <v>0.04940711462450593</v>
+        <v>0.01877470355731225</v>
       </c>
       <c r="G95" t="n">
-        <v>1.155</v>
+        <v>0.35</v>
       </c>
       <c r="H95" t="n">
-        <v>2.02</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B96" t="n">
         <v>1012</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>youtube1</t>
+          <t>youtube2</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>tolerancia a la frustración</t>
+          <t>comprensión organizativa</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0266798418972332</v>
+        <v>0.1195652173913044</v>
       </c>
       <c r="G96" t="n">
-        <v>1.165</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>2.06</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B97" t="n">
         <v>1012</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>youtube1</t>
+          <t>youtube2</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>comunicacion asertiva</t>
+          <t>conciencia crítica</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>43</v>
+        <v>228</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0424901185770751</v>
+        <v>0.225296442687747</v>
       </c>
       <c r="G97" t="n">
-        <v>0.855</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>2.52</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B98" t="n">
         <v>1012</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>youtube1</t>
+          <t>youtube2</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>manejo de conflictos</t>
+          <t>desarrollo de las relaciones</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F98" t="n">
-        <v>0.02766798418972332</v>
+        <v>0.03063241106719368</v>
       </c>
       <c r="G98" t="n">
-        <v>1.52625</v>
+        <v>0.475</v>
       </c>
       <c r="H98" t="n">
-        <v>2.44</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B99" t="n">
         <v>1012</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>youtube1</t>
+          <t>youtube2</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>motivación de logro</t>
+          <t>tolerancia a la frustración</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="F99" t="n">
-        <v>0.03853754940711462</v>
+        <v>0.1571146245059289</v>
       </c>
       <c r="G99" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>2.79</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B100" t="n">
         <v>1012</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>youtube1</t>
+          <t>youtube2</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>percepción y comprensión emocional</t>
+          <t>manejo de conflictos</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>47</v>
+        <v>225</v>
       </c>
       <c r="F100" t="n">
-        <v>0.04644268774703558</v>
+        <v>0.2223320158102767</v>
       </c>
       <c r="G100" t="n">
-        <v>1.085</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>2.11</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B101" t="n">
         <v>1012</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>youtube1</t>
+          <t>youtube2</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>violencia</t>
+          <t>motivación de logro</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F101" t="n">
-        <v>0.03260869565217391</v>
+        <v>0.03162055335968379</v>
       </c>
       <c r="G101" t="n">
-        <v>2.235</v>
+        <v>0.525</v>
       </c>
       <c r="H101" t="n">
-        <v>4.56</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B102" t="n">
         <v>1012</v>
@@ -3485,25 +3485,25 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>asertividad</t>
+          <t>percepción y comprensión emocional</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>172</v>
+        <v>234</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1699604743083004</v>
+        <v>0.2312252964426877</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>0.54</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B103" t="n">
         <v>1012</v>
@@ -3515,152 +3515,152 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>autoconciencia emocional</t>
+          <t>violencia</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="F103" t="n">
-        <v>0.2025691699604743</v>
+        <v>0.1808300395256917</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>0.91</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B104" t="n">
-        <v>1012</v>
+        <v>1000</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>youtube2</t>
+          <t>twitter1</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>autoestima</t>
+          <t>asertividad</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>237</v>
+        <v>31</v>
       </c>
       <c r="F104" t="n">
-        <v>0.2341897233201581</v>
+        <v>0.031</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>1.065</v>
       </c>
       <c r="H104" t="n">
-        <v>0.75</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B105" t="n">
-        <v>1012</v>
+        <v>1000</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>youtube2</t>
+          <t>twitter1</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>desarrollar y estimular a los demás</t>
+          <t>autoconciencia emocional</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="F105" t="n">
-        <v>0.02075098814229249</v>
+        <v>0.052</v>
       </c>
       <c r="G105" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H105" t="n">
-        <v>1.01</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B106" t="n">
-        <v>1012</v>
+        <v>1000</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>youtube2</t>
+          <t>twitter1</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>empatía</t>
+          <t>autoestima</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="F106" t="n">
-        <v>0.2371541501976284</v>
+        <v>0.012</v>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>2.06625</v>
       </c>
       <c r="H106" t="n">
-        <v>1.2</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B107" t="n">
-        <v>1012</v>
+        <v>1000</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>youtube2</t>
+          <t>twitter1</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>autocontrol emocional</t>
+          <t>empatía</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>211</v>
+        <v>21</v>
       </c>
       <c r="F107" t="n">
-        <v>0.208498023715415</v>
+        <v>0.021</v>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>1.735</v>
       </c>
       <c r="H107" t="n">
-        <v>1.09</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B108" t="n">
-        <v>1012</v>
+        <v>1000</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>youtube2</t>
+          <t>twitter1</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3669,28 +3669,28 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F108" t="n">
-        <v>0.03656126482213438</v>
+        <v>0.029</v>
       </c>
       <c r="G108" t="n">
-        <v>0.5</v>
+        <v>2.89</v>
       </c>
       <c r="H108" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B109" t="n">
-        <v>1012</v>
+        <v>1000</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>youtube2</t>
+          <t>twitter1</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3699,28 +3699,28 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="F109" t="n">
-        <v>0.1432806324110672</v>
+        <v>0.01</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>1.625</v>
       </c>
       <c r="H109" t="n">
-        <v>0.82</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B110" t="n">
-        <v>1012</v>
+        <v>1000</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>youtube2</t>
+          <t>twitter1</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3729,28 +3729,28 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>194</v>
+        <v>25</v>
       </c>
       <c r="F110" t="n">
-        <v>0.191699604743083</v>
+        <v>0.025</v>
       </c>
       <c r="G110" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="H110" t="n">
-        <v>0.83</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B111" t="n">
-        <v>1012</v>
+        <v>1000</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>youtube2</t>
+          <t>twitter1</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3759,28 +3759,28 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F111" t="n">
-        <v>0.02173913043478261</v>
+        <v>0.023</v>
       </c>
       <c r="G111" t="n">
-        <v>0.475</v>
+        <v>2.495</v>
       </c>
       <c r="H111" t="n">
-        <v>1.15</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B112" t="n">
-        <v>1012</v>
+        <v>1000</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>youtube2</t>
+          <t>twitter1</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3789,28 +3789,28 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="F112" t="n">
-        <v>0.01877470355731225</v>
+        <v>0.037</v>
       </c>
       <c r="G112" t="n">
-        <v>0.35</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H112" t="n">
-        <v>0.64</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B113" t="n">
-        <v>1012</v>
+        <v>1000</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>youtube2</t>
+          <t>twitter1</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3819,28 +3819,28 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="F113" t="n">
-        <v>0.1195652173913044</v>
+        <v>0.019</v>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>0.83</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B114" t="n">
-        <v>1012</v>
+        <v>1000</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>youtube2</t>
+          <t>twitter1</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3849,28 +3849,28 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>228</v>
+        <v>8</v>
       </c>
       <c r="F114" t="n">
-        <v>0.225296442687747</v>
+        <v>0.008</v>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>1.83125</v>
       </c>
       <c r="H114" t="n">
-        <v>1.15</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B115" t="n">
-        <v>1012</v>
+        <v>1000</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>youtube2</t>
+          <t>twitter1</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3879,28 +3879,28 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F115" t="n">
-        <v>0.03063241106719368</v>
+        <v>0.018</v>
       </c>
       <c r="G115" t="n">
-        <v>0.475</v>
+        <v>1.745</v>
       </c>
       <c r="H115" t="n">
-        <v>1.16</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B116" t="n">
-        <v>1012</v>
+        <v>1000</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>youtube2</t>
+          <t>twitter1</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3909,2565 +3909,1665 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="F116" t="n">
-        <v>0.1571146245059289</v>
+        <v>0.016</v>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>1.40125</v>
       </c>
       <c r="H116" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B117" t="n">
-        <v>1012</v>
+        <v>1000</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>youtube2</t>
+          <t>twitter1</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>comunicacion asertiva</t>
+          <t>manejo de conflictos</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="F117" t="n">
-        <v>0.01383399209486166</v>
+        <v>0.043</v>
       </c>
       <c r="G117" t="n">
-        <v>0.325</v>
+        <v>1.625</v>
       </c>
       <c r="H117" t="n">
-        <v>0.71</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B118" t="n">
-        <v>1012</v>
+        <v>1000</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>youtube2</t>
+          <t>twitter1</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>manejo de conflictos</t>
+          <t>motivación de logro</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>225</v>
+        <v>37</v>
       </c>
       <c r="F118" t="n">
-        <v>0.2223320158102767</v>
+        <v>0.037</v>
       </c>
       <c r="G118" t="n">
-        <v>0</v>
+        <v>1.545</v>
       </c>
       <c r="H118" t="n">
-        <v>0.93</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B119" t="n">
-        <v>1012</v>
+        <v>1000</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>youtube2</t>
+          <t>twitter1</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>motivación de logro</t>
+          <t>percepción y comprensión emocional</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F119" t="n">
-        <v>0.03162055335968379</v>
+        <v>0.022</v>
       </c>
       <c r="G119" t="n">
-        <v>0.525</v>
+        <v>1.70875</v>
       </c>
       <c r="H119" t="n">
-        <v>1.6</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B120" t="n">
-        <v>1012</v>
+        <v>1000</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>youtube2</t>
+          <t>twitter1</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>percepción y comprensión emocional</t>
+          <t>violencia</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>234</v>
+        <v>60</v>
       </c>
       <c r="F120" t="n">
-        <v>0.2312252964426877</v>
+        <v>0.06</v>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="H120" t="n">
-        <v>0.79</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B121" t="n">
-        <v>1012</v>
+        <v>1000</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>youtube2</t>
+          <t>twitter2</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>violencia</t>
+          <t>asertividad</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>183</v>
+        <v>13</v>
       </c>
       <c r="F121" t="n">
-        <v>0.1808300395256917</v>
+        <v>0.013</v>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H121" t="n">
-        <v>1.71</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B122" t="n">
         <v>1000</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>twitter1</t>
+          <t>twitter2</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>asertividad</t>
+          <t>autoconciencia emocional</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F122" t="n">
-        <v>0.031</v>
+        <v>0.011</v>
       </c>
       <c r="G122" t="n">
-        <v>1.065</v>
+        <v>0.375</v>
       </c>
       <c r="H122" t="n">
-        <v>1.64</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B123" t="n">
         <v>1000</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>twitter1</t>
+          <t>twitter2</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>autoconciencia emocional</t>
+          <t>autoestima</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="F123" t="n">
-        <v>0.052</v>
+        <v>0.029</v>
       </c>
       <c r="G123" t="n">
-        <v>1.1</v>
+        <v>0.48125</v>
       </c>
       <c r="H123" t="n">
-        <v>1.95</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B124" t="n">
         <v>1000</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>twitter1</t>
+          <t>twitter2</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>autoestima</t>
+          <t>empatía</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F124" t="n">
-        <v>0.012</v>
+        <v>0.025</v>
       </c>
       <c r="G124" t="n">
-        <v>2.06625</v>
+        <v>0.5750000000000001</v>
       </c>
       <c r="H124" t="n">
-        <v>3.49</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B125" t="n">
         <v>1000</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>twitter1</t>
+          <t>twitter2</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>desarrollar y estimular a los demás</t>
+          <t>influencia</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F125" t="n">
-        <v>0.022</v>
+        <v>0.039</v>
       </c>
       <c r="G125" t="n">
-        <v>2.33125</v>
+        <v>0.525</v>
       </c>
       <c r="H125" t="n">
-        <v>3.23</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B126" t="n">
         <v>1000</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>twitter1</t>
+          <t>twitter2</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>empatía</t>
+          <t>liderazgo</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>21</v>
+        <v>241</v>
       </c>
       <c r="F126" t="n">
-        <v>0.021</v>
+        <v>0.241</v>
       </c>
       <c r="G126" t="n">
-        <v>1.735</v>
+        <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>2.9</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B127" t="n">
         <v>1000</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>twitter1</t>
+          <t>twitter2</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>autocontrol emocional</t>
+          <t>optimismo</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F127" t="n">
-        <v>0.026</v>
+        <v>0.033</v>
       </c>
       <c r="G127" t="n">
-        <v>1.35</v>
+        <v>0.4</v>
       </c>
       <c r="H127" t="n">
-        <v>2.09</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B128" t="n">
         <v>1000</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>twitter1</t>
+          <t>twitter2</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>influencia</t>
+          <t>relación social</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F128" t="n">
-        <v>0.029</v>
+        <v>0.019</v>
       </c>
       <c r="G128" t="n">
-        <v>2.89</v>
+        <v>0.5</v>
       </c>
       <c r="H128" t="n">
-        <v>4.2</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B129" t="n">
         <v>1000</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>twitter1</t>
+          <t>twitter2</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>liderazgo</t>
+          <t>colaboración y cooperación</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F129" t="n">
-        <v>0.01</v>
+        <v>0.012</v>
       </c>
       <c r="G129" t="n">
-        <v>1.625</v>
+        <v>0.4</v>
       </c>
       <c r="H129" t="n">
-        <v>2.49</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B130" t="n">
         <v>1000</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>twitter1</t>
+          <t>twitter2</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>optimismo</t>
+          <t>comprensión organizativa</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>25</v>
+        <v>219</v>
       </c>
       <c r="F130" t="n">
-        <v>0.025</v>
+        <v>0.219</v>
       </c>
       <c r="G130" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>2.51</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B131" t="n">
         <v>1000</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>twitter1</t>
+          <t>twitter2</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>relación social</t>
+          <t>conciencia crítica</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>23</v>
+        <v>211</v>
       </c>
       <c r="F131" t="n">
-        <v>0.023</v>
+        <v>0.211</v>
       </c>
       <c r="G131" t="n">
-        <v>2.495</v>
+        <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>3.63</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B132" t="n">
         <v>1000</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>twitter1</t>
+          <t>twitter2</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>colaboración y cooperación</t>
+          <t>desarrollo de las relaciones</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="F132" t="n">
-        <v>0.037</v>
+        <v>0.053</v>
       </c>
       <c r="G132" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="H132" t="n">
-        <v>1.69</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B133" t="n">
         <v>1000</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>twitter1</t>
+          <t>twitter2</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>comprensión organizativa</t>
+          <t>tolerancia a la frustración</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F133" t="n">
-        <v>0.019</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="H133" t="n">
-        <v>1.6</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B134" t="n">
         <v>1000</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>twitter1</t>
+          <t>twitter2</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>conciencia crítica</t>
+          <t>manejo de conflictos</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F134" t="n">
-        <v>0.008</v>
+        <v>0.019</v>
       </c>
       <c r="G134" t="n">
-        <v>1.83125</v>
+        <v>0.4</v>
       </c>
       <c r="H134" t="n">
-        <v>2.3</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B135" t="n">
         <v>1000</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>twitter1</t>
+          <t>twitter2</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>desarrollo de las relaciones</t>
+          <t>motivación de logro</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F135" t="n">
-        <v>0.018</v>
+        <v>0.013</v>
       </c>
       <c r="G135" t="n">
-        <v>1.745</v>
+        <v>0.65</v>
       </c>
       <c r="H135" t="n">
-        <v>2.62</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B136" t="n">
         <v>1000</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>twitter1</t>
+          <t>twitter2</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>tolerancia a la frustración</t>
+          <t>percepción y comprensión emocional</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F136" t="n">
-        <v>0.016</v>
+        <v>0.026</v>
       </c>
       <c r="G136" t="n">
-        <v>1.40125</v>
+        <v>0.4</v>
       </c>
       <c r="H136" t="n">
-        <v>1.91</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B137" t="n">
         <v>1000</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>twitter1</t>
+          <t>twitter2</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>comunicacion asertiva</t>
+          <t>violencia</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="F137" t="n">
-        <v>0.022</v>
+        <v>0.137</v>
       </c>
       <c r="G137" t="n">
-        <v>1.135</v>
+        <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>2.03</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B138" t="n">
-        <v>1000</v>
+        <v>649</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>twitter1</t>
+          <t>telegram1</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>manejo de conflictos</t>
+          <t>asertividad</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>0.043</v>
+        <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>1.625</v>
+        <v>0.5750000000000001</v>
       </c>
       <c r="H138" t="n">
-        <v>2.56</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B139" t="n">
-        <v>1000</v>
+        <v>649</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>twitter1</t>
+          <t>telegram1</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>motivación de logro</t>
+          <t>autoconciencia emocional</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F139" t="n">
-        <v>0.037</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="G139" t="n">
-        <v>1.545</v>
+        <v>0.475</v>
       </c>
       <c r="H139" t="n">
-        <v>2.85</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B140" t="n">
-        <v>1000</v>
+        <v>649</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>twitter1</t>
+          <t>telegram1</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>percepción y comprensión emocional</t>
+          <t>autoestima</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="F140" t="n">
-        <v>0.022</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="G140" t="n">
-        <v>1.70875</v>
+        <v>0.6</v>
       </c>
       <c r="H140" t="n">
-        <v>2.84</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B141" t="n">
-        <v>1000</v>
+        <v>649</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>twitter1</t>
+          <t>telegram1</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>violencia</t>
+          <t>empatía</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="F141" t="n">
-        <v>0.06</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="G141" t="n">
-        <v>2.07</v>
+        <v>0.8</v>
       </c>
       <c r="H141" t="n">
-        <v>4.07</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B142" t="n">
-        <v>1000</v>
+        <v>649</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>twitter2</t>
+          <t>telegram1</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>asertividad</t>
+          <t>influencia</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="F142" t="n">
-        <v>0.013</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="G142" t="n">
-        <v>0.3</v>
+        <v>1.08</v>
       </c>
       <c r="H142" t="n">
-        <v>0.47</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B143" t="n">
-        <v>1000</v>
+        <v>649</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>twitter2</t>
+          <t>telegram1</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>autoconciencia emocional</t>
+          <t>liderazgo</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F143" t="n">
-        <v>0.011</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="G143" t="n">
-        <v>0.375</v>
+        <v>0.5750000000000001</v>
       </c>
       <c r="H143" t="n">
-        <v>0.67</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B144" t="n">
-        <v>1000</v>
+        <v>649</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>twitter2</t>
+          <t>telegram1</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>autoestima</t>
+          <t>optimismo</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F144" t="n">
-        <v>0.029</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="G144" t="n">
-        <v>0.48125</v>
+        <v>0.45</v>
       </c>
       <c r="H144" t="n">
-        <v>0.88</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B145" t="n">
-        <v>1000</v>
+        <v>649</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>twitter2</t>
+          <t>telegram1</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>desarrollar y estimular a los demás</t>
+          <t>relación social</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F145" t="n">
-        <v>0.013</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="G145" t="n">
-        <v>0.55</v>
+        <v>1.15</v>
       </c>
       <c r="H145" t="n">
-        <v>0.96</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B146" t="n">
-        <v>1000</v>
+        <v>649</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>twitter2</t>
+          <t>telegram1</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>empatía</t>
+          <t>colaboración y cooperación</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="F146" t="n">
-        <v>0.025</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="G146" t="n">
-        <v>0.5750000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="H146" t="n">
-        <v>1.12</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B147" t="n">
-        <v>1000</v>
+        <v>649</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>twitter2</t>
+          <t>telegram1</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>autocontrol emocional</t>
+          <t>comprensión organizativa</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F147" t="n">
-        <v>0.035</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="G147" t="n">
-        <v>0.375</v>
+        <v>0.45</v>
       </c>
       <c r="H147" t="n">
-        <v>0.55</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B148" t="n">
-        <v>1000</v>
+        <v>649</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>twitter2</t>
+          <t>telegram1</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>influencia</t>
+          <t>conciencia crítica</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>0.039</v>
+        <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>0.525</v>
+        <v>0.8749999999999999</v>
       </c>
       <c r="H148" t="n">
-        <v>0.97</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B149" t="n">
-        <v>1000</v>
+        <v>649</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>twitter2</t>
+          <t>telegram1</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>liderazgo</t>
+          <t>desarrollo de las relaciones</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>241</v>
+        <v>66</v>
       </c>
       <c r="F149" t="n">
-        <v>0.241</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="G149" t="n">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="H149" t="n">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B150" t="n">
-        <v>1000</v>
+        <v>649</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>twitter2</t>
+          <t>telegram1</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>optimismo</t>
+          <t>tolerancia a la frustración</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F150" t="n">
-        <v>0.033</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="G150" t="n">
-        <v>0.4</v>
+        <v>0.675</v>
       </c>
       <c r="H150" t="n">
-        <v>1.05</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B151" t="n">
-        <v>1000</v>
+        <v>649</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>twitter2</t>
+          <t>telegram1</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>relación social</t>
+          <t>manejo de conflictos</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
       <c r="H151" t="n">
-        <v>1.02</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B152" t="n">
-        <v>1000</v>
+        <v>649</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>twitter2</t>
+          <t>telegram1</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>colaboración y cooperación</t>
+          <t>motivación de logro</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>0.4</v>
+        <v>1.05</v>
       </c>
       <c r="H152" t="n">
-        <v>1.15</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B153" t="n">
-        <v>1000</v>
+        <v>649</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>twitter2</t>
+          <t>telegram1</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>comprensión organizativa</t>
+          <t>percepción y comprensión emocional</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>219</v>
+        <v>33</v>
       </c>
       <c r="F153" t="n">
-        <v>0.219</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="G153" t="n">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="H153" t="n">
-        <v>0.61</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B154" t="n">
-        <v>1000</v>
+        <v>649</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>twitter2</t>
+          <t>telegram1</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>conciencia crítica</t>
+          <t>violencia</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>211</v>
+        <v>33</v>
       </c>
       <c r="F154" t="n">
-        <v>0.211</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="G154" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="H154" t="n">
-        <v>0.66</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B155" t="n">
-        <v>1000</v>
+        <v>649</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>twitter2</t>
+          <t>telegram2</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>desarrollo de las relaciones</t>
+          <t>asertividad</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="F155" t="n">
-        <v>0.053</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="G155" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="H155" t="n">
-        <v>1.44</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B156" t="n">
-        <v>1000</v>
+        <v>649</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>twitter2</t>
+          <t>telegram2</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>tolerancia a la frustración</t>
+          <t>autoconciencia emocional</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F156" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="G156" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>0.58</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B157" t="n">
-        <v>1000</v>
+        <v>649</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>twitter2</t>
+          <t>telegram2</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>comunicacion asertiva</t>
+          <t>autoestima</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="F157" t="n">
-        <v>0.012</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="G157" t="n">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="H157" t="n">
-        <v>0.54</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B158" t="n">
-        <v>1000</v>
+        <v>649</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>twitter2</t>
+          <t>telegram2</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>manejo de conflictos</t>
+          <t>empatía</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="F158" t="n">
-        <v>0.019</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="G158" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>0.72</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B159" t="n">
-        <v>1000</v>
+        <v>649</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>twitter2</t>
+          <t>telegram2</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>motivación de logro</t>
+          <t>influencia</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F159" t="n">
-        <v>0.013</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="G159" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>1.14</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B160" t="n">
-        <v>1000</v>
+        <v>649</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>twitter2</t>
+          <t>telegram2</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>percepción y comprensión emocional</t>
+          <t>liderazgo</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F160" t="n">
-        <v>0.026</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="G160" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>0.93</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B161" t="n">
-        <v>1000</v>
+        <v>649</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>twitter2</t>
+          <t>telegram2</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>violencia</t>
+          <t>optimismo</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="F161" t="n">
-        <v>0.137</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="G161" t="n">
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>0.88</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B162" t="n">
         <v>649</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>telegram1</t>
+          <t>telegram2</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>asertividad</t>
+          <t>relación social</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="F162" t="n">
-        <v>0</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="G162" t="n">
-        <v>0.5750000000000001</v>
+        <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>0.53</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B163" t="n">
         <v>649</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>telegram1</t>
+          <t>telegram2</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>autoconciencia emocional</t>
+          <t>colaboración y cooperación</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="F163" t="n">
-        <v>0.06779661016949153</v>
+        <v>0.1694915254237288</v>
       </c>
       <c r="G163" t="n">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="H163" t="n">
-        <v>0.8</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B164" t="n">
         <v>649</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>telegram1</t>
+          <t>telegram2</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>autoestima</t>
+          <t>comprensión organizativa</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="F164" t="n">
-        <v>0.0847457627118644</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="G164" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>1.1</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B165" t="n">
         <v>649</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>telegram1</t>
+          <t>telegram2</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>desarrollar y estimular a los demás</t>
+          <t>conciencia crítica</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="F165" t="n">
-        <v>0.03389830508474576</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="G165" t="n">
-        <v>0.975</v>
+        <v>0</v>
       </c>
       <c r="H165" t="n">
-        <v>1.62</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B166" t="n">
         <v>649</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>telegram1</t>
+          <t>telegram2</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>empatía</t>
+          <t>desarrollo de las relaciones</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="F166" t="n">
-        <v>0.05084745762711865</v>
+        <v>0.1694915254237288</v>
       </c>
       <c r="G166" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H166" t="n">
-        <v>1.53</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B167" t="n">
         <v>649</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>telegram1</t>
+          <t>telegram2</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>autocontrol emocional</t>
+          <t>tolerancia a la frustración</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="F167" t="n">
-        <v>0</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="G167" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="H167" t="n">
-        <v>0.6</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B168" t="n">
         <v>649</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>telegram1</t>
+          <t>telegram2</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>influencia</t>
+          <t>manejo de conflictos</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="F168" t="n">
-        <v>0.0847457627118644</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="G168" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>1.97</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B169" t="n">
         <v>649</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>telegram1</t>
+          <t>telegram2</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>liderazgo</t>
+          <t>motivación de logro</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="F169" t="n">
-        <v>0.05084745762711865</v>
+        <v>0.1864406779661017</v>
       </c>
       <c r="G169" t="n">
-        <v>0.5750000000000001</v>
+        <v>0</v>
       </c>
       <c r="H169" t="n">
-        <v>1.11</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B170" t="n">
         <v>649</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>telegram1</t>
+          <t>telegram2</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>optimismo</t>
+          <t>percepción y comprensión emocional</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="F170" t="n">
-        <v>0.05084745762711865</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="G170" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="H170" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B171" t="n">
         <v>649</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>telegram1</t>
+          <t>telegram2</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>relación social</t>
+          <t>violencia</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F171" t="n">
-        <v>0.01694915254237288</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="G171" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B172" t="n">
-        <v>649</v>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>telegram1</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>colaboración y cooperación</t>
-        </is>
-      </c>
-      <c r="E172" t="n">
-        <v>55</v>
-      </c>
-      <c r="F172" t="n">
-        <v>0.0847457627118644</v>
-      </c>
-      <c r="G172" t="n">
-        <v>0.425</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B173" t="n">
-        <v>649</v>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>telegram1</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>comprensión organizativa</t>
-        </is>
-      </c>
-      <c r="E173" t="n">
-        <v>11</v>
-      </c>
-      <c r="F173" t="n">
-        <v>0.01694915254237288</v>
-      </c>
-      <c r="G173" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B174" t="n">
-        <v>649</v>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>telegram1</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>conciencia crítica</t>
-        </is>
-      </c>
-      <c r="E174" t="n">
-        <v>0</v>
-      </c>
-      <c r="F174" t="n">
-        <v>0</v>
-      </c>
-      <c r="G174" t="n">
-        <v>0.8749999999999999</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B175" t="n">
-        <v>649</v>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>telegram1</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>desarrollo de las relaciones</t>
-        </is>
-      </c>
-      <c r="E175" t="n">
-        <v>66</v>
-      </c>
-      <c r="F175" t="n">
-        <v>0.1016949152542373</v>
-      </c>
-      <c r="G175" t="n">
-        <v>0.475</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B176" t="n">
-        <v>649</v>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>telegram1</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>tolerancia a la frustración</t>
-        </is>
-      </c>
-      <c r="E176" t="n">
-        <v>11</v>
-      </c>
-      <c r="F176" t="n">
-        <v>0.01694915254237288</v>
-      </c>
-      <c r="G176" t="n">
-        <v>0.675</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B177" t="n">
-        <v>649</v>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>telegram1</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>comunicacion asertiva</t>
-        </is>
-      </c>
-      <c r="E177" t="n">
-        <v>11</v>
-      </c>
-      <c r="F177" t="n">
-        <v>0.01694915254237288</v>
-      </c>
-      <c r="G177" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B178" t="n">
-        <v>649</v>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>telegram1</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>manejo de conflictos</t>
-        </is>
-      </c>
-      <c r="E178" t="n">
-        <v>0</v>
-      </c>
-      <c r="F178" t="n">
-        <v>0</v>
-      </c>
-      <c r="G178" t="n">
-        <v>0.825</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B179" t="n">
-        <v>649</v>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>telegram1</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>motivación de logro</t>
-        </is>
-      </c>
-      <c r="E179" t="n">
-        <v>0</v>
-      </c>
-      <c r="F179" t="n">
-        <v>0</v>
-      </c>
-      <c r="G179" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B180" t="n">
-        <v>649</v>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>telegram1</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>percepción y comprensión emocional</t>
-        </is>
-      </c>
-      <c r="E180" t="n">
-        <v>33</v>
-      </c>
-      <c r="F180" t="n">
-        <v>0.05084745762711865</v>
-      </c>
-      <c r="G180" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B181" t="n">
-        <v>649</v>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>telegram1</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>violencia</t>
-        </is>
-      </c>
-      <c r="E181" t="n">
-        <v>33</v>
-      </c>
-      <c r="F181" t="n">
-        <v>0.05084745762711865</v>
-      </c>
-      <c r="G181" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B182" t="n">
-        <v>649</v>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>telegram2</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>asertividad</t>
-        </is>
-      </c>
-      <c r="E182" t="n">
-        <v>33</v>
-      </c>
-      <c r="F182" t="n">
-        <v>0.05084745762711865</v>
-      </c>
-      <c r="G182" t="n">
-        <v>0</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B183" t="n">
-        <v>649</v>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>telegram2</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>autoconciencia emocional</t>
-        </is>
-      </c>
-      <c r="E183" t="n">
-        <v>11</v>
-      </c>
-      <c r="F183" t="n">
-        <v>0.01694915254237288</v>
-      </c>
-      <c r="G183" t="n">
-        <v>0</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B184" t="n">
-        <v>649</v>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>telegram2</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>autoestima</t>
-        </is>
-      </c>
-      <c r="E184" t="n">
-        <v>44</v>
-      </c>
-      <c r="F184" t="n">
-        <v>0.06779661016949153</v>
-      </c>
-      <c r="G184" t="n">
-        <v>0</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B185" t="n">
-        <v>649</v>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>telegram2</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>desarrollar y estimular a los demás</t>
-        </is>
-      </c>
-      <c r="E185" t="n">
-        <v>44</v>
-      </c>
-      <c r="F185" t="n">
-        <v>0.06779661016949153</v>
-      </c>
-      <c r="G185" t="n">
-        <v>0</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B186" t="n">
-        <v>649</v>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>telegram2</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>empatía</t>
-        </is>
-      </c>
-      <c r="E186" t="n">
-        <v>66</v>
-      </c>
-      <c r="F186" t="n">
-        <v>0.1016949152542373</v>
-      </c>
-      <c r="G186" t="n">
-        <v>0</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B187" t="n">
-        <v>649</v>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>telegram2</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>autocontrol emocional</t>
-        </is>
-      </c>
-      <c r="E187" t="n">
-        <v>33</v>
-      </c>
-      <c r="F187" t="n">
-        <v>0.05084745762711865</v>
-      </c>
-      <c r="G187" t="n">
-        <v>0</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B188" t="n">
-        <v>649</v>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>telegram2</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>influencia</t>
-        </is>
-      </c>
-      <c r="E188" t="n">
-        <v>44</v>
-      </c>
-      <c r="F188" t="n">
-        <v>0.06779661016949153</v>
-      </c>
-      <c r="G188" t="n">
-        <v>0</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B189" t="n">
-        <v>649</v>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>telegram2</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>liderazgo</t>
-        </is>
-      </c>
-      <c r="E189" t="n">
-        <v>44</v>
-      </c>
-      <c r="F189" t="n">
-        <v>0.06779661016949153</v>
-      </c>
-      <c r="G189" t="n">
-        <v>0</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B190" t="n">
-        <v>649</v>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>telegram2</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>optimismo</t>
-        </is>
-      </c>
-      <c r="E190" t="n">
-        <v>44</v>
-      </c>
-      <c r="F190" t="n">
-        <v>0.06779661016949153</v>
-      </c>
-      <c r="G190" t="n">
-        <v>0</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B191" t="n">
-        <v>649</v>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>telegram2</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>relación social</t>
-        </is>
-      </c>
-      <c r="E191" t="n">
-        <v>44</v>
-      </c>
-      <c r="F191" t="n">
-        <v>0.06779661016949153</v>
-      </c>
-      <c r="G191" t="n">
-        <v>0</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B192" t="n">
-        <v>649</v>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>telegram2</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>colaboración y cooperación</t>
-        </is>
-      </c>
-      <c r="E192" t="n">
-        <v>110</v>
-      </c>
-      <c r="F192" t="n">
-        <v>0.1694915254237288</v>
-      </c>
-      <c r="G192" t="n">
-        <v>0</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B193" t="n">
-        <v>649</v>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>telegram2</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>comprensión organizativa</t>
-        </is>
-      </c>
-      <c r="E193" t="n">
-        <v>22</v>
-      </c>
-      <c r="F193" t="n">
-        <v>0.03389830508474576</v>
-      </c>
-      <c r="G193" t="n">
-        <v>0</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B194" t="n">
-        <v>649</v>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>telegram2</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>conciencia crítica</t>
-        </is>
-      </c>
-      <c r="E194" t="n">
-        <v>55</v>
-      </c>
-      <c r="F194" t="n">
-        <v>0.0847457627118644</v>
-      </c>
-      <c r="G194" t="n">
-        <v>0</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B195" t="n">
-        <v>649</v>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>telegram2</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>desarrollo de las relaciones</t>
-        </is>
-      </c>
-      <c r="E195" t="n">
-        <v>110</v>
-      </c>
-      <c r="F195" t="n">
-        <v>0.1694915254237288</v>
-      </c>
-      <c r="G195" t="n">
-        <v>0</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B196" t="n">
-        <v>649</v>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>telegram2</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>tolerancia a la frustración</t>
-        </is>
-      </c>
-      <c r="E196" t="n">
-        <v>66</v>
-      </c>
-      <c r="F196" t="n">
-        <v>0.1016949152542373</v>
-      </c>
-      <c r="G196" t="n">
-        <v>0</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B197" t="n">
-        <v>649</v>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>telegram2</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>comunicacion asertiva</t>
-        </is>
-      </c>
-      <c r="E197" t="n">
-        <v>88</v>
-      </c>
-      <c r="F197" t="n">
-        <v>0.1355932203389831</v>
-      </c>
-      <c r="G197" t="n">
-        <v>0</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B198" t="n">
-        <v>649</v>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>telegram2</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>manejo de conflictos</t>
-        </is>
-      </c>
-      <c r="E198" t="n">
-        <v>66</v>
-      </c>
-      <c r="F198" t="n">
-        <v>0.1016949152542373</v>
-      </c>
-      <c r="G198" t="n">
-        <v>0</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B199" t="n">
-        <v>649</v>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>telegram2</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>motivación de logro</t>
-        </is>
-      </c>
-      <c r="E199" t="n">
-        <v>121</v>
-      </c>
-      <c r="F199" t="n">
-        <v>0.1864406779661017</v>
-      </c>
-      <c r="G199" t="n">
-        <v>0</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B200" t="n">
-        <v>649</v>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>telegram2</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>percepción y comprensión emocional</t>
-        </is>
-      </c>
-      <c r="E200" t="n">
-        <v>77</v>
-      </c>
-      <c r="F200" t="n">
-        <v>0.1186440677966102</v>
-      </c>
-      <c r="G200" t="n">
-        <v>0</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B201" t="n">
-        <v>649</v>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>telegram2</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>violencia</t>
-        </is>
-      </c>
-      <c r="E201" t="n">
-        <v>22</v>
-      </c>
-      <c r="F201" t="n">
-        <v>0.03389830508474576</v>
-      </c>
-      <c r="G201" t="n">
-        <v>0</v>
-      </c>
-      <c r="H201" t="n">
         <v>0.48</v>
       </c>
     </row>
